--- a/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_image_classification.xlsx
+++ b/image_preprocessing/two_vertex/accuracy_degradation/virtual/virtual_image_classification.xlsx
@@ -575,11 +575,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{"classifier/VClassifier": {"config": {"INPUT_INFO": {"&lt;class 'list'&gt;": ["data"]}, "OUTPUT_INFO": "&lt;class 'list'&gt;", "input_shape": null, "output_shape": null}, "ppu_state": {"Classifier-resnet50/prepoc-resnet50": {"num_replicas": 3, "max_batch_size": 1, "resources": {"CPU1": 1}}, "Classifier-resnet50/model-resnet50": {"num_replicas": 1, "max_batch_size": 4, "resources": {"Tesla P40": 1}, "num_gpus": 1}}, "ppu_identifier": "Classifier-resnet50"}}</t>
+          <t>{"classifier/VClassifier": {"config": {"INPUT_INFO": {"&lt;class 'list'&gt;": ["data"]}, "OUTPUT_INFO": "&lt;class 'list'&gt;", "input_shape": null, "output_shape": null}, "ppu_state": {"Classifier-resnet50/prepoc-resnet50": {"num_replicas": 3, "max_batch_size": 2, "resources": {"CPU1": 1}}, "Classifier-resnet50/model-resnet50": {"num_replicas": 1, "max_batch_size": 4, "resources": {"Tesla P40": 1}, "num_gpus": 1}}, "ppu_identifier": "Classifier-resnet50"}}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>91.91170692443848</v>
+        <v>91.30401587486267</v>
       </c>
       <c r="I2" t="n">
         <v>13</v>
@@ -691,7 +691,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>91.91170692443848</v>
+        <v>91.30401587486267</v>
       </c>
       <c r="H2" t="n">
         <v>13</v>
@@ -700,16 +700,16 @@
         <v>75.8</v>
       </c>
       <c r="J2" t="n">
-        <v>98.63525118798518</v>
+        <v>98.64415806724709</v>
       </c>
       <c r="K2" t="n">
-        <v>155.340852905393</v>
+        <v>165.6768842078752</v>
       </c>
       <c r="L2" t="n">
-        <v>57.45555633329786</v>
+        <v>58.00230442546308</v>
       </c>
       <c r="M2" t="n">
-        <v>63.22208577417769</v>
+        <v>65.11749558616428</v>
       </c>
     </row>
   </sheetData>
@@ -800,7 +800,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>91.91170692443848</v>
+        <v>91.30401587486267</v>
       </c>
       <c r="H2" t="n">
         <v>13</v>
@@ -810,7 +810,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>[68.98143497528508, 113.4461160399951, 93.77063100691885, 84.60118103539571, 74.55226796446368, 85.33130900468677, 75.67803899291903, 65.97533699823543, 55.95074902521446, 62.58677795995027, 54.06213901005685, 60.499857005197555, 51.43086600583047, 57.09923297399655, 47.48821601970121, 53.87174105271697, 43.795804027467966, 48.32632897887379, 57.31799500063062, 46.948048984631896, 54.73791796248406, 44.38325599767268, 54.21257804846391, 57.338093989528716, 47.15976503212005, 54.24340098397806, 44.741746969521046, 50.190098001621664, 55.042767024133354, 45.973311993293464, 49.65643701143563, 54.19153202092275, 62.82822700450197, 53.49728401051834, 60.26489200303331, 50.20332697313279, 57.40069696912542, 47.642329009249806, 55.10516703361645, 44.52355799730867, 48.133014992345124, 55.747709004208446, 46.7685759649612, 58.95646201679483, 73.1743469950743, 63.40999098028988, 53.77546203089878, 58.38065000716597, 48.55142900487408, 55.59074098709971, 45.92472099466249, 52.6721149799414, 43.450010009109974, 45.96320999553427, 52.18738300027326, 43.095306027680635, 46.45484400680289, 53.37747203884646, 59.711673005949706, 50.13553402386606, 55.55802199523896, 46.33606597781181, 51.92656797589734, 58.47679398721084, 49.95115502970293, 54.19473699294031, 44.34590000892058, 49.90710801212117, 55.79287896398455, 45.4024409991689, 50.51808804273605, 56.44650000613183, 47.037357988301665, 51.920000987593085, 59.749716019723564, 49.61659200489521, 56.70900898985565, 46.77188495406881, 53.13656397629529, 58.884257974568754, 48.91460598446429, 54.69095299486071, 45.7752009970136, 51.961119985207915, 58.39928798377514, 49.08558999886736, 55.68691296502948, 45.82815198227763, 52.94905201299116, 59.05853898730129, 49.262641987297684, 54.376955959014595, 45.27803702512756, 52.549137035384774, 57.37708497326821, 48.151992028579116, 53.91011998290196, 43.95233799004927, 47.56086796987802, 52.98646597657353, 44.17672101408243, 48.514942987821996, 57.48356401454657, 47.10327700013295, 52.834361034911126, 43.36002696072683, 47.73655202006921, 55.74771499959752, 46.109021990559995, 51.89026001607999, 61.21761997928843, 53.569786017760634, 57.71606200141832, 47.25008102832362, 55.02498394344002, 45.12940300628543, 49.01141702430323, 56.838203978259116, 46.133621013723314, 53.235767991282046, 43.51567098638043, 47.741354967001826, 55.09771598735824, 45.214141020551324, 50.3014349960722, 56.49170302785933, 46.269254002254456, 52.55387001670897, 58.916784008033574, 48.74184197979048, 54.1273970156908, 60.5252850218676, 53.0212230514735, 57.12401802884415, 47.40160203073174, 52.20174603164196, 55.19190401537344, 62.256950011942536, 52.79305903241038, 59.8469779943116, 49.98186801094562, 56.49060901487246, 46.54183000093326, 52.86859400803223, 43.07236097520217, 46.522154996637255, 53.49249398568645, 42.81829699175432, 48.33640600554645, 55.79509102972224, 46.55311000533402, 53.70942997979, 43.89903094852343, 48.790859000291675, 54.9849119852297, 46.659710991661996, 49.124252051115036, 54.67689101351425, 44.80552300810814, 52.55952902371064, 54.94217900559306, 45.66324199549854, 52.555356989614666, 57.25141300354153, 47.4501849967055, 53.21315204491839, 42.68172598676756, 46.82816501008347, 52.32697003521025, 43.38071501115337, 46.79138195933774, 53.79547900520265, 44.292912003584206, 48.67633496178314, 56.35917204199359, 46.25501501141116, 52.73866397328675, 42.827370984014124, 46.08556296443567, 51.98470602044836, 42.317536019254476, 46.96424200665206, 54.611235042102635, 44.62289600633085, 49.41896302625537, 55.27801800053567, 45.9374810452573, 52.3386099957861, 42.54267900250852, 44.3633469985798, 50.13450898695737, 56.04510603006929, 46.88261396950111, 52.296727953944355, 43.03935100324452, 46.98797897435725, 53.02035697968677, 43.19962003501132, 47.3505089757964, 51.98917299276218, 42.63620899291709, 46.549655962735415, 51.617252989672124, 42.771666951011866, 46.45364498719573, 52.00089898426086, 42.1637209947221, 46.303973998874426, 53.181840979959816, 43.44486596528441, 46.18646600283682, 52.02510597882792, 42.72917000344023, 43.52395597379655, 46.93961900193244, 53.58674097806215, 60.50134700490162, 51.45953199826181, 56.51924799894914, 46.74046003492549, 52.526324056088924, 42.04431996913627, 46.077061037067324, 52.55377996945754, 42.571757978294045, 47.40931204287335, 52.572209970094264, 43.45015302533284, 49.012453004252166, 53.54176298715174, 44.31857995223254, 48.98615198908374, 56.72561505343765, 47.06244700355455, 52.23879899131134, 43.23243402177468, 49.12172199692577, 56.1396119883284, 46.509756008163095, 53.61109203658998, 43.956234003417194, 46.231234970036894, 52.597304980736226, 43.029386026319116, 47.694564040284604, 53.813935024663806, 45.61855900101364, 49.73600403172895, 57.70412500714883, 47.97665902879089, 53.503628994803876, 44.590268982574344, 52.16655001277104, 59.01730398181826, 49.12899300688878, 56.65707302978262, 46.71959695406258, 52.51364200375974, 42.24855999927968, 45.57841701898724, 51.80585302878171, 58.699591958429664, 49.299404956400394, 55.09418301517144, 45.45481002423912, 52.68828402040526, 60.02925202483311, 50.30316801276058, 57.64866597019136, 47.302523045800626, 55.535688996315, 44.96263503096998, 51.43798002973199, 42.6999109913595, 49.14147802628577, 55.741180025506765, 45.87713099317625, 52.45606799144298, 59.901857981458306, 49.945994978770614, 55.23889703908935, 44.83326600166038, 52.45134199503809, 57.25309200352058, 46.72751302132383, 52.606501965783536, 42.78428398538381, 47.02390602324158, 53.22492797859013, 43.577085016295314, 47.06471395911649, 52.68486501881853, 43.43967302702367, 53.72089403681457, 54.145605012308806, 43.88957499759272, 49.792847014032304, 52.193553012330085, 45.98403803538531, 53.92517399741337, 61.83770397910848, 52.60337295476347, 61.46963103674352, 52.56646900670603, 59.533827006816864, 49.50569896027446, 56.137798994313926, 46.38494900427759, 51.94725701585412, 58.344704972114414, 47.501972992904484, 55.344136024359614, 45.547368994448334, 52.53983999136835, 57.46357497991994, 47.326186031568795, 58.2629349664785, 48.30605199094862, 55.48475100658834, 45.699290989432484, 51.581969019025564, 57.67458496848121, 47.92232997715473, 52.51121800392866, 58.39518900029361, 65.29694201890379, 57.741191994864494, 47.90383001090959, 52.66939499415457, 62.62091902317479, 52.92956699850038, 60.83813600707799, 51.65866500465199, 58.52054100250825, 48.62999398028478, 55.47819595085457, 45.58010201435536, 51.34686001110822, 60.803202039096504, 50.957454019226134, 58.40854701818898, 48.53053396800533, 55.75679399771616, 46.01109499344602, 50.98621902288869, 63.10813600430265, 53.05571499047801, 63.21984401438385, 52.776125026866794, 58.94929700298235, 48.94446500111371, 56.60657095722854, 47.11161000886932, 53.065048006828874, 43.47105498891324, 47.89972200524062, 55.17460498958826, 45.51331099355593, 53.07902401546016, 62.76355101726949, 52.73153499001637, 61.693091003689915, 52.31636395910755, 58.36665502283722, 47.79999505262822, 55.06834702100605, 45.30512500787154, 52.3554400424473, 58.98103001527488, 48.66778303403407, 54.65529102366418, 44.88955304259434, 52.70526703679934, 59.49318496277556, 50.3607610007748, 54.932849016040564, 45.70215300191194, 51.75702995620668, 57.156721013598144, 47.53640200942755, 54.3306460021995, 44.53453398309648, 49.32497802656144, 56.6019740072079, 46.47263401420787, 54.45618799421936, 44.67947903322056, 48.94580598920584, 57.42008698871359, 48.21003403048962, 54.45799796143547, 44.52117998152971, 49.54518802696839, 58.126248011831194, 48.513858986552805, 55.666329979430884, 45.78673600917682, 51.47715099155903, 56.80923699401319, 46.321814006660134, 52.71015001926571, 42.83647699048743, 46.02387099293992, 53.42357902554795, 43.526194989681244, 46.2734840111807, 52.744084037840366, 42.808570025954396, 45.77900801086798, 52.32230998808518, 43.09204203309491, 46.44523997558281, 52.51229403074831, 42.42324799997732, 44.91968802176416, 50.71219801902771, 54.74141601007432, 45.27179803699255, 52.69900301937014, 52.90532298386097, 42.49972599791363, 52.43588500889018, 53.87401097686961, 44.61892100516707, 49.310636008158326, 54.31009700987488, 44.35942001873627, 48.74041600851342, 53.15629701362923, 43.89392596203834, 50.22026994265616, 53.60589001793414, 43.89011801686138, 47.28435899596661, 52.77370003750548, 43.24498597998172, 46.508868981618434, 54.935627966187894, 44.696911005303264, 52.745934983249754, 42.90274198865518, 45.5610670032911, 52.4462090106681, 42.48713899869472, 44.16579700773582, 49.490751000121236, 54.02122397208586, 44.46032200939953, 48.09886898146942, 53.112663968931884, 43.3255200041458, 45.889961009379476, 56.24502303544432, 46.49297398282215, 44.8921270435676, 45.99540599156171, 52.68982599955052, 51.56607198296115, 61.57621601596475, 52.770790993236005, 55.91678601922467, 46.076436003204435, 52.56606399780139, 42.76759398635477, 44.312793004792184, 49.347149033565074, 54.20000496087596, 45.32268701586872, 49.60921703604981, 54.93409000337124, 44.83711899956688, 49.242457025684416, 55.61653297627345, 44.77098101051524, 49.612018978223205, 40.116878983099014, 42.58195398142561, 46.61255201790482, 51.833869016263634, 42.15742100495845, 45.21380999358371, 49.31950202444568, 39.52952002873644, 42.99919703043997, 46.21623898856342, 52.09659499814734, 43.20630501024425, 43.44943899195641, 48.879766021855175, 54.897351015824825, 44.215479982085526, 49.1978150093928, 56.005746009759605, 46.06306104687974, 52.48028697678819, 42.63459000503644, 43.439588975161314, 47.92993899900466, 53.84758801665157, 44.42832700442523, 47.502883011475205, 52.368092990946025, 56.1892680125311, 67.07961001666263, 57.62398702790961, 67.11959699168801, 57.45469604153186, 66.47518195677549, 57.15806601801887, 66.04883202817291, 56.37499800650403, 66.78127299528569, 58.075042034033686, 64.92404802702367, 55.95308495685458, 63.3319320040755, 53.560895030386746, 58.10079199727625, 48.36583498399705, 52.11370799224824, 42.907413037028164, 45.35512701841071, 51.61602300358936, 60.529443027917296, 50.81108398735523, 56.54296500142664, 46.55662598088384, 53.13816003035754, 44.307797972578555, 45.83699500653893, 52.506289968732744, 41.97034100070596, 45.391583000309765, 51.2589460122399, 42.32837603194639, 45.58087297482416, 50.83588603883982, 41.23321099905297, 43.43287501251325, 47.16289200587198, 53.041912033222616, 56.14894401514903, 47.456061001867056, 55.733659013640136, 46.14989901892841, 52.403326029889286, 42.92692098533735, 45.518008002545685, 52.22579900873825, 56.359152018558234, 47.168802993837744, 52.96604603063315, 43.01977198338136, 48.22536703431979, 56.8839970510453, 47.22487699473277, 53.2553709927015, 43.855435971636325, 48.094805038999766, 53.643527964595705, 43.64873899612576, 50.19253399223089, 54.928552999626845, 45.8956909715198, 51.264048961456865, 58.18541598273441, 47.983928001485765, 55.51477300468832, 45.749866985715926, 48.28664899105206, 54.529084998648614, 45.048648957163095, 48.672005999833345, 53.67003398714587, 43.48645801655948, 49.26875903038308, 53.060830978211015, 43.594417977146804, 47.533485980238765, 52.38019599346444, 43.18415396846831, 45.190018019638956, 50.527259008958936, 55.845017021056265, 45.46014795778319, 52.19629599014297, 43.28729899134487, 45.3624349902384, 52.70893598208204, 42.85649297526106, 44.64720195392147, 48.489126027561724, 54.56289299763739, 44.9284830247052, 50.30909500783309, 55.83955300971866, 45.64184200717136, 52.54747503204271, 58.090568985790014, 48.63449599361047, 53.15252294531092, 43.52410096907988, 46.93561897147447, 51.8868780345656, 42.757738032378256, 44.64229301083833, 49.33677497319877, 52.88296804064885, 43.92696695867926, 48.0381139786914, 53.906777990050614, 43.80022402619943, 47.383589029777795, 53.30534599488601, 43.341450043953955, 45.08140397956595, 52.29746701661497, 42.353624012321234, 44.07915601041168, 48.86279604397714, 55.3044070256874, 45.55802303366363, 51.57560098450631, 56.61419697571546, 47.06982499919832, 52.8044700040482, 42.9005780024454, 42.95033699600026, 48.81940397899598, 54.447254980914295, 44.76960399188101, 49.996604037005454, 54.22560800798237, 44.25341897876933, 48.46474900841713, 56.408847973216325, 46.40712297987193, 52.623735973611474, 42.39629104267806, 46.78915301337838, 52.24811699008569, 43.3308879728429, 45.39314203429967, 50.967127026524395, 41.18595801992342, 43.223182030487806, 48.31361898686737, 54.7312599956058, 43.763016001321375, 49.68737898161635, 56.76633398979902, 47.08180500892922, 53.204068972263485, 43.92243502661586, 47.68505605170503, 55.78635900747031, 46.91318399272859, 52.65432101441547, 43.109155958518386, 47.100335999857634, 54.818736971355975, 45.150066958740354, 52.27462202310562, 60.06555800558999, 50.768930988851935, 55.74089998845011, 46.37638700660318, 52.137826976832, 56.34598800679669, 44.66132400557399, 52.26529203355312, 42.3730899929069, 44.26431399770081, 48.303588991984725, 55.17039296682924, 45.024829043541104, 50.0049939728342, 54.863063036464155, 45.002075959928334, 49.189272976946086, 55.93432602472603, 45.72859004838392, 50.24355498608202, 54.35994896106422, 46.08227702556178, 52.75730596622452, 42.86752600455657, 44.634769030380994, 52.40446899551898, 42.32332203537226, 45.22615496534854, 53.39586501941085, 43.574686977081, 44.28029397968203, 49.84197299927473, 53.10992803424597, 57.60316702071577, 49.932250985875726, 53.95444598980248, 44.567102973815054, 49.03108294820413, 53.13822801690549, 42.99993300810456, 45.074541005305946, 49.61963096866384, 54.12370496196672, 44.20673300046474, 48.873352992814034, 53.90135699417442, 43.15709602087736, 53.29611396882683, 56.20518099749461, 65.27570501202717, 56.599528004880995, 62.54404899664223, 51.55978898983449, 57.30132199823856, 46.84906097827479, 52.4153730366379, 42.5792169990018, 44.45822798879817, 49.13803102681413, 55.87443697731942, 46.257273002993315, 51.64124601287767, 42.697984958067536, 44.16284698527306, 48.33174298983067, 53.876316000241786, 44.24126498633996, 48.73306798981503, 55.777005036361516, 46.08433099929243, 52.93288000393659, 42.67983301542699, 44.790736050345004, 49.00143900886178, 53.50921500939876, 44.595946033950895, 47.37051500706002, 53.73501300346106, 43.86196401901543, 48.29578602220863, 53.93643898423761, 44.07352098496631, 47.923927020747215, 53.186053002718836, 43.49608498159796, 47.4748729611747, 52.13249096414074, 43.10338298091665, 46.89716699067503, 52.58676898665726, 42.73767699487507, 46.46072402829304, 52.1717969677411, 43.31153101520613, 45.69307796191424, 52.50584502937272, 55.39632204454392, 45.42889300500974, 52.80567996669561, 56.48922797990963, 47.0041919616051, 52.638882014434785, 42.767762031871825, 45.45762197813019, 52.57266398984939, 55.91740598902106, 47.1541159786284, 52.16413299785927, 42.745051032397896, 44.82884600292891, 49.39648899016902, 55.705682025291026, 46.15765402559191, 49.93071500211954, 56.72568699810654, 46.97863495675847, 53.46102698240429, 43.62215305445716, 44.972702977247536, 48.52472699712962, 55.06835598498583, 44.06315600499511, 48.886814969591796, 55.45733397593722, 45.84499099291861, 53.052657982334495, 55.53633201634511, 45.62574898591265, 49.18290697969496, 54.596652975305915, 44.60897599346936, 48.697357007768005, 54.61251002270728, 44.212064996827394, 48.257754009682685, 53.20294201374054, 43.70542900869623, 47.28435300057754, 52.58846300421283, 42.213509033899754, 45.7988620037213, 52.97986802179366, 43.01488399505615, 46.12187301972881, 52.28927102871239, 42.370553012005985, 46.156962984241545, 51.69176700292155, 56.94299697643146, 44.52873201807961, 52.06678400281817, 42.19589999411255, 46.619508997537196, 52.40728898206726, 42.71213500760496, 45.644465018995106, 50.73077400447801, 40.874839993193746, 43.73086697887629, 47.53092600731179, 51.99851898942143, 41.87947994796559, 46.219423005823046, 52.08847997710109, 42.623392946552485, 46.4232960366644, 52.757982979528606, 42.69581503467634, 45.2449019649066, 52.77618003310636, 43.531419010832906, 43.20666700368747, 47.677972994279116, 54.3837680015713, 43.01144299097359, 48.41037798905745, 54.423384950496256, 44.60348503198475, 52.02942795585841, 55.195947003085166, 44.953380012884736, 51.366811036132276, 56.27953598741442, 46.91354400711134, 52.37828003009781, 42.45301696937531, 45.564493048004806, 52.41526896134019, 55.70816103136167, 46.88653297489509, 52.6261129998602, 42.0464530470781, 44.32137799449265, 48.39823499787599, 55.19820703193545, 45.32890999689698, 50.49227399285883, 55.6302199838683, 45.796138991136104, 49.57014799583703, 53.98712801979855, 44.75882701808587, 48.99880103766918, 55.50023203250021, 45.759227010421455, 50.21680396748707, 42.47166699497029, 43.761589971836656, 48.51654899539426, 53.857454971875995, 43.63041796023026, 46.29677999764681, 51.74270400311798, 42.45994600933045, 42.58534702239558, 48.38688299059868, 53.40152501594275, 43.502142012584955, 45.70584697648883, 52.66963900066912, 43.89554198132828, 46.849771053530276, 54.56849600886926, 62.89163598557934, 52.79133899603039, 58.38906398275867, 48.70072501944378, 54.848640982527286, 44.95715000666678, 48.08550700545311, 58.16477898042649, 48.52206201758236, 55.14215596485883, 44.65135297505185, 51.8993969890289, 54.61320199538022, 45.47116602770984, 49.5047889999114, 55.773681960999966, 45.907181047368795, 52.573365974240005, 42.52986499341205, 42.170107015408576, 46.544606040697545, 51.58091400517151, 42.803490010555834, 44.79079000884667, 50.31754798255861, 42.42498299572617, 44.28400099277496, 48.27730800025165, 53.5364699899219, 43.40282699558884, 46.218255010899156, 52.7462069876492, 57.071596034802496, 47.930072993040085, 55.842853034846485, 46.180035977158695, 52.7224910329096, 42.867870011832565, 46.755348972510546, 53.09525202028453, 42.71916497964412, 46.63187899859622, 53.48699103342369, 43.74631098471582, 48.853547021280974, 56.05219199787825, 46.16116301622242, 51.330591028090566, 54.985905007924885, 45.479668013285846, 49.826160015072674, 55.24096701992676, 45.42963398853317, 48.189157037995756, 54.83569100033492, 45.36658601136878, 49.5569120394066, 54.93003595620394, 45.03021400887519, 48.755460942629725, 52.83372203120962, 43.84621197823435, 47.20228404039517, 52.40384303033352, 44.072303047869354, 45.73685996001586, 52.74637998081744, 42.34200803330168, 46.16502998396754, 54.079257999546826, 44.261405011639, 48.26545005198568, 51.4961329754442, 43.01405104342848, 48.244722944218665, 52.11217195028439, 42.86459303693846, 46.597959008067846, 52.27810796350241, 43.048070976510644, 49.14243199164048, 56.274532980751246, 64.46309195598587, 55.239451001398265, 62.74905998725444, 51.97232298087329, 57.286458963062614, 47.801059030462056, 53.17238700808957, 42.67160501331091, 46.6314610093832, 51.97677999967709, 42.720289959106594, 45.522243017330766, 50.25998200289905, 41.32083599688485, 44.284198025707155, 48.78532502334565, 55.72558200219646, 44.37244602013379, 52.287435973994434, 42.35130798770115, 45.26065499521792, 49.964328994974494, 42.659483035095036, 44.54765300033614, 48.54378302115947, 53.93684603041038, 43.63201599335298, 49.00522902607918, 55.033095995895565, 45.26005295338109, 49.278065969701856, 57.347750989720225, 46.83330497937277, 51.9498850335367, 43.36236201925203, 47.03423398314044, 53.11498703667894, 43.23383601149544, 47.36504203174263, 53.55051002698019, 60.77729200478643, 50.33396801445633, 56.806728010997176, 46.982653031591326, 50.73650198755786, 43.52273198310286, 43.05056395241991, 48.85176697280258, 54.98416302725673, 44.08591095125303, 52.09068697877228, 57.31330602429807, 48.53230598382652, 53.33597998833284, 43.72159397462383, 49.05588395195082, 56.151660974137485, 46.452541020698845, 52.255451038945466, 59.5394839765504, 50.245449994690716, 56.43924797186628, 46.651292010210454, 53.17391501739621, 43.391482962761074, 46.60224198596552, 53.78332902910188, 44.07095501665026, 47.777038998901844, 55.094598967116326, 45.39234295953065, 49.57755404757336, 56.70994601678103, 47.54666599910706, 52.884797973092645, 42.94600599678233, 45.456888037733734, 50.62476999592036, 57.46329895919189, 47.84269101219252, 54.0818739682436, 43.70304098119959, 47.42215195437893, 55.67293002968654, 46.095261990558356, 52.22391203278676, 49.679388001095504, 59.89355698693544, 55.36257498897612, 45.61293200822547, 53.28256101347506, 57.75876698317006, 47.063696023542434, 53.794078005012125, 44.942573993466794, 49.45440200390294, 57.54360498394817, 46.55302601167932, 54.22930099302903, 44.48029096238315, 48.38248202577233, 57.721064949873835, 47.90413996670395, 54.75235800258815, 44.209490006323904, 49.543481960427016, 55.36949197994545, 45.592002978082746, 50.379996944684535, 54.99689100543037, 45.30467698350549, 48.732588009443134, 53.755227010697126, 45.02618499100208, 48.47084602806717, 54.444768000394106, 44.70231203595176, 49.125628953333944, 54.9451369442977, 45.23996904026717, 48.905642004683614, 54.33514004107565, 44.76899601286277, 47.8046250063926, 54.81631099246442, 45.561556005850434, 50.46812602085993, 56.60579400137067, 45.76313804136589, 53.19146200781688, 43.31566096516326, 45.17726297490299, 52.70344403106719, 56.77473801188171, 46.88994097523391, 53.376458992715925, 44.095269055105746, 48.89379203086719, 55.95659598475322, 46.60587798571214, 53.69077401701361, 44.07794598955661, 47.98655799822882, 53.3745659631677, 43.49588602781296, 47.25143499672413, 54.902818985283375, 45.52132001845166, 53.239547996781766, 57.4062840314582, 47.83544095698744, 52.759979967959225, 42.71477501606569, 46.32148100063205, 52.48321400722489, 42.249117977917194, 46.10337200574577, 52.63041501166299, 42.74284397251904, 44.91562704788521, 49.42819697316736, 54.82651403872296, 46.107097005005926, 52.0197520381771, 42.89993201382458, 46.51926504448056, 52.114664984401315, 42.89961198810488, 46.33918002946302, 52.759140031412244, 43.01542299799621, 46.12259997520596, 52.47018503723666, 42.63029299909249, 43.075205001514405, 47.89913003332913, 51.715256995521486, 42.87020297488198, 45.68202799418941, 52.78969299979508, 42.84206603188068, 45.13809003401548, 52.925741008948535, 42.94911399483681, 43.549544003326446, 47.68345004413277, 52.696324011776596, 42.68891201354563, 45.47404096229002, 52.84508899785578, 42.85301303025335, 45.79569800989702, 52.3307709954679, 55.79110200051218, 46.96119501022622, 52.67380800796673, 42.77503699995577, 45.87303299922496, 49.16196799604222, 40.34582898020744, 44.44385599344969, 50.05782900843769, 56.71044799964875, 46.480750024784356, 53.61600895412266, 43.723410984966904, 45.919271011371166, 52.341095986776054, 42.55855403607711, 42.71462402539328, 48.52460703114048, 56.1452439869754, 46.39071197016165, 52.52147401915863, 42.478942952584475, 44.102652987930924, 49.43909996654838, 53.83640801301226, 44.075815996620804, 46.82227497687563, 51.827927003614604, 42.896387982182205, 45.75342300813645, 52.662770031020045, 42.74217301281169, 44.296559994108975, 48.3391719753854, 56.02056096540764, 46.22351803118363, 49.86614902736619, 40.71510297944769, 44.15306297596544, 48.76184102613479, 56.18549697101116, 45.652447966858745, 53.17939497763291, 43.2821559952572, 46.75504600163549, 52.23457602551207, 42.52492799423635, 44.762047997210175, 48.67519700201228, 54.554878966882825, 46.36148101417348, 48.295309010427445, 55.82683702232316, 45.75959395151585, 52.33762302668765, 42.63091000029817, 44.65041001094505, 49.4782860041596, 55.0601800205186, 45.70415400667116, 52.71431297296658, 42.73618198931217, 45.097705035004765, 52.605099976062775, 42.69789200043306, 43.67982503026724, 47.994096006732434, 53.15890599740669, 44.08223199425265, 46.79667204618454, 54.15229999925941, 44.47378503391519, 49.20107300858945, 55.36861502332613, 45.47909501707181, 52.34823998762295, 55.458382004871964, 46.24795995187014, 51.698198018129915, 41.96432197932154, 43.677878042217344, 49.49676099931821, 55.04463304532692, 45.60206300811842, 49.279995961114764, 54.71320898504928, 43.864551989827305, 49.26203901413828, 54.94886601809412, 46.00102303083986, 51.80030904011801, 42.760281008668244, 46.365283022169024, 52.77195601956919, 43.02516597090289, 44.654662953689694, 50.39951700018719, 52.93183302273974, 43.63567504333332, 47.01552097685635, 52.88706498686224, 42.06615197472274, 48.415187979117036, 54.04026503674686, 44.37008098466322, 48.91461197985336, 54.31723495712504, 44.47813599836081, 48.75299800187349, 53.053312993142754, 43.11606800183654, 47.35438199713826, 52.611362014431506, 43.13078598352149, 45.621283003129065, 52.79311101185158, 42.793711996637285, 43.45484898658469, 47.111406980548054, 51.79973895428702, 42.66556596849114, 46.3304829900153, 52.74966300930828, 42.74498502491042, 45.782869041431695, 51.08990898588672, 41.4057609741576, 45.374403009191155, 49.47007598821074, 55.33503397600725, 44.02084002504125, 48.944718029815704, 55.092114955186844, 45.61184602789581, 52.36167996190488, 55.124645004980266, 45.44991295551881, 48.36949799209833, 55.399688018951565, 45.67306401440874, 52.47146700276062, 56.560857978183776, 47.17512900242582, 52.76782700093463, 43.24017296312377, 45.90792703675106, 53.12075896654278, 43.19866996956989, 43.91908401157707, 46.881904010660946, 51.96622299263254, 62.04415200045332, 52.77651996584609, 58.37376503041014, 49.630950030405074, 54.46155997924507, 44.88664702512324, 49.763686023652554, 56.82778701884672, 47.23803495289758, 51.5570699935779, 58.1692109699361, 48.78578503848985, 56.748304050415754, 47.563624975737184, 54.487955989316106, 44.52721698908135, 50.69463199470192, 56.89518601866439, 47.05652501434088, 50.554902001749724, 54.71092299558222, 46.153008996043354, 51.74675304442644, 57.615993020590395, 46.06802703347057, 52.536306029651314, 42.6023350446485, 45.274217962287366, 49.23979000886902, 54.97623997507617, 45.21741904318333, 49.01464702561498, 53.92872204538435, 44.39852596260607, 48.81586297415197, 53.58961597084999, 44.32155698304996, 47.61556402081624, 52.298954979050905, 43.20439096773043, 47.07508604042232, 52.865951030980796, 43.50367101142183, 47.48975299298763, 54.359516012482345, 44.51698996126652, 49.014992953743786, 56.02427397388965, 46.361634973436594, 53.383266960736364, 44.015743013005704, 46.442578022833914, 52.48638102784753, 43.314265029039234, 45.64919200493023, 53.04533097660169, 43.59050700441003, 47.4378929939121, 53.386354993563145, 43.70560200186446, 47.39426198648289, 54.01244602398947, 44.08902197610587, 46.95084196282551, 52.45095898862928, 43.26556797605008, 46.56684602377936, 52.59514000499621, 42.670115013606846, 44.112247007433325, 48.79000800428912, 55.23617402650416, 45.22515804274008, 49.17317401850596, 53.24485001619905, 43.94224798306823, 49.433863023296, 55.25699304416776, 45.56584300007671, 52.47320100897923, 57.18865100061521, 47.77366202324629, 53.29478601925075, 43.92858501523733, 47.68080305075273, 52.40498296916485, 43.084236967843026, 47.32029099250212, 53.41020203195512, 43.42520300997421, 52.63982299948111, 58.05318203056231, 48.22562000481412, 52.21813800744712, 43.372363958042115, 46.89528502058238, 53.668267966713756, 43.30679296981543, 46.59498203545809, 50.44642399298027, 40.70672998204827, 43.0911349831149, 48.69069199776277, 53.20075596682727, 42.747148021589965, 46.872490958776325, 52.54699697252363, 42.63478302164003, 47.37392201786861, 56.71485001221299, 47.044333012308925, 52.46063804952428, 41.883369034621865, 46.05169896967709, 52.20164300408214, 41.96245200000703, 43.71857497608289, 47.75182594312355, 52.54748300649226, 42.62268001912162, 45.72198400273919, 52.54055402474478, 42.683320003561676, 44.957722013350576, 50.081122026313096, 40.458699979353696, 42.66955301864073, 45.86411901982501, 53.64223098149523, 55.95106794498861, 46.669567993376404, 51.52492399793118, 42.66234894748777, 45.44342600274831, 49.8917400254868, 40.1782090193592, 43.58321998734027, 46.989405003841966, 52.979036001488566, 42.73461800767109, 46.475103008560836, 52.27006896166131, 42.504135984927416, 45.071227999869734, 52.51433403464034, 42.727511026896536, 43.091389001347125, 46.51314299553633, 54.104437003843486, 43.875794974155724, 47.50443302327767, 55.158695962745696, 45.42933398624882, 48.92101802397519, 40.16613803105429, 42.68706199945882, 45.99793197121471, 51.95935600204393, 42.32663899892941, 44.287268014159054, 48.52075799135491, 55.950322013814, 46.280534006655216, 52.48749197926372, 42.53447096562013, 44.192247034516186, 46.76285298774019, 53.295029036235064, 43.28734497539699, 44.890523015055805, 51.7105309991166, 55.10467098793015, 45.30855600023642, 49.134444969240576, 53.634931973647326, 43.921997013967484, 47.02636896399781, 52.86193697247654, 43.04617299931124, 45.92027998296544, 52.643081988207996, 42.82824299298227, 45.954965986311436, 52.51673102611676, 42.590936995111406, 44.43686397280544, 47.37771797226742, 54.387665004469454, 44.557239045389, 47.0444779493846, 52.26726800901815, 43.99904701858759, 46.08394199749455, 52.19134601065889, 42.36262000631541, 45.805718982592225, 52.102177985943854, 42.76057396782562, 43.67784003261477, 48.041124013252556, 52.32880002586171, 42.6405249745585, 45.75271997600794, 52.732960029970855, 43.06520597310737, 45.49258999759331, 52.36029700608924, 42.487616010475904, 44.06438604928553, 47.03497001901269, 51.55346100218594, 42.6826550392434, 45.79303099308163, 52.77813598513603, 42.96287696342915, 45.20196298835799, 52.291195024736226, 42.504818993620574, 44.93001400260255, 51.91476800246164, 42.53985395189375, 43.95246098283678, 48.48559299716726, 53.251172008458525, 43.34694001590833, 45.73790903668851, 49.77310704998672, 40.27003003284335, 42.490472027566284, 45.62573600560427, 50.42533599771559, 41.77753801923245, 43.92323602223769, 48.410273040644825, 53.21363499388099, 42.9764409782365, 45.7890999969095, 50.98265002015978, 43.40987396426499, 42.72973700426519, 47.45205398648977, 52.90778400376439, 41.76066198851913, 43.93225401872769, 48.66007203236222, 53.135335969273, 42.94069798197597, 46.25713801942766, 50.49047799548134, 54.12748298840597, 45.717056025750935, 52.473071962594986, 42.93064499506727, 42.54515201319009, 46.69739701785147, 52.53694701241329, 42.457952979020774, 45.7140959915705, 52.3212609696202, 42.491865053307265, 43.39788103243336, 49.05496700666845, 53.20541199762374, 43.39484102092683, 46.133195981383324, 52.39580798661336, 42.57319599855691, 44.97500299476087, 48.49372000899166, 40.04572099074721, 42.75839799083769, 45.828298025298864, 50.51625898340717, 40.04010098287836, 41.83777404250577, 46.74936895025894, 52.37456096801907, 41.627763013821095, 46.040387998800725, 52.50107997562736, 42.588967946358025, 44.20225997455418, 47.59408195968717, 53.08332899585366, 43.54634799528867, 46.145147003699094, 52.70073696738109, 42.03818301903084, 46.36087600374594, 52.561817050445825, 42.52637503668666, 45.588876004330814, 52.73629998555407, 42.90518898051232, 44.63884502183646, 48.442650004290044, 53.901492967270315, 43.922734970692545, 48.59206097899005, 54.232908005360514, 44.76963699562475, 48.709819035138935, 53.79912198986858, 43.97763003362343, 46.44538799766451, 51.75024596974254, 42.38467401592061, 43.57472399715334, 52.13896499481052, 57.62109602801502, 47.848342976067215, 54.38840202987194, 44.53775699948892, 49.86735602142289, 56.71426298795268, 48.06324397213757, 51.66937300236896, 42.61002002749592, 46.280906011816114, 52.870279003400356, 43.20686403661966, 46.845017990563065, 52.324197022244334, 42.75813099229708, 46.00076103815809, 52.5473480229266, 42.68478800076991, 45.2345889643766, 48.90189500292763, 40.60725902672857, 43.430342979263514, 46.01666401140392, 52.53801599610597, 58.16592997871339, 49.101468990556896, 53.87384502682835, 44.04256900306791, 48.67042601108551, 53.3325300202705, 43.59166801441461, 46.79246200248599, 52.80980700626969, 43.09950099559501, 46.209137013647705, 53.718923998530954, 43.91630500322208, 44.315204955637455, 48.335684987250715, 53.236897045280784, 42.49751998577267, 48.598094028420746, 52.504674007650465, 42.718971031717956, 45.73719704058021, 50.61979003949091, 42.59448702214286, 43.818789010401815, 47.32832498848438, 52.647161995992064, 42.34112199628726, 46.9792090007104, 52.54658998455852, 42.70934499800205, 45.636249997187406, 52.62252897955477, 42.76710096746683, 46.38427501777187, 51.469466008711606, 42.25185699760914, 45.21273804130033, 51.82656302349642, 42.91409702273086, 44.610045035369694, 48.62004303140566, 53.74447297072038, 43.6791279935278, 49.17213803855702, 52.358657005243, 42.942417960148305, 46.409751987084746, 52.541054028552026, 42.70519799320027, 45.161073037888855, 49.942345009185374, 40.24611396016553, 44.02446001768112, 49.14973699487746, 54.19903196161613, 43.786781025119126, 47.394805995281786, 53.63191000651568, 43.75745903234929, 47.31564299436286, 52.844392019324005, 43.811813986394554, 4</t>
+          <t>[92.3042839858681, 93.35166896926239, 91.61052200943232, 88.40324700577185, 78.3912320039235, 90.59924504254013, 81.20116399368271, 71.53689296683297, 61.40011199750006, 68.58998001553118, 58.18657297641039, 49.59064000286162, 57.25336296018213, 47.21412499202415, 51.807935000397265, 44.01206102920696, 47.25650296313688, 55.674892966635525, 45.67858297377825, 51.22897296678275, 59.2611120082438, 49.64179900707677, 56.94496404612437, 47.01769701205194, 52.885267010424286, 58.432093006558716, 48.254609981086105, 56.38960900250822, 46.62068700417876, 51.92653398262337, 57.34474101336673, 48.09472797205672, 54.719470033887774, 44.33475900441408, 49.16375095490366, 56.96302198339254, 47.16692096553743, 53.399056021589786, 43.28543395968154, 45.918601972516626, 51.81608197744936, 42.69329801900312, 45.27363303350285, 52.69374401541427, 42.88080002879724, 46.59039399120957, 53.72097599320114, 43.97516301833093, 47.54901799606159, 69.2926969495602, 59.972854040097445, 70.12448698515072, 59.93877799483016, 51.00144003517926, 58.863290993031114, 49.05289801536128, 56.80243001552299, 47.05192300025374, 53.848849958740175, 44.561305025126785, 48.679692030418664, 55.05987303331494, 44.631526980083436, 50.85232597775757, 56.59912998089567, 47.14143800083548, 52.301486022770405, 60.37164700683206, 51.47746397415176, 55.07007701089606, 44.87431998131797, 52.75939998682588, 56.53358600102365, 46.7962310067378, 52.63545096386224, 62.20398499863222, 52.850842010229826, 60.11324003338814, 50.616135995369405, 65.98742603091523, 56.747880007606, 65.10381202679127, 54.7467460273765, 63.222228025551885, 54.260719974990934, 62.24066897993907, 53.02140803541988, 62.77082598535344, 53.063801024109125, 56.20169796748087, 45.448324002791196, 52.50632896786556, 59.99191600130871, 49.97419199207798, 57.184965000487864, 47.02633299166337, 52.934576000552624, 42.87775995908305, 47.4403869593516, 53.39985800674185, 44.07579603139311, 48.8813910051249, 57.35673400340602, 47.70252900198102, 53.15449903719127, 42.55338996881619, 48.6193360411562, 52.083023998420686, 43.936156027484685, 49.47183595504612, 58.23595600668341, 48.2598640373908, 53.84112102910876, 44.1477739950642, 49.213752965442836, 54.90824399748817, 45.27998901903629, 52.45624401140958, 59.025685011874884, 52.94800299452618, 56.598935974761844, 47.947831044439226, 53.91393601894379, 44.341889035422355, 48.80760802188888, 56.32766603957862, 46.430650050751865, 49.789725977461785, 55.353947973344475, 63.53642599424347, 53.97422797977924, 58.878201991319656, 50.31875096028671, 58.1406140117906, 48.43138996511698, 53.51416498888284, 43.95780200138688, 47.53301903838292, 53.47832798724994, 43.74133300734684, 48.36129199247807, 55.53598399274051, 46.36239499086514, 52.32907703612, 57.4411730049178, 47.6966819842346, 53.049260983243585, 43.4813269530423, 47.576508950442076, 55.56046596029773, 45.07594305323437, 51.771115977317095, 58.68605099385604, 49.057219992391765, 58.32007800927386, 72.78623199090362, 63.08555603027344, 75.29542100382969, 65.78798999544233, 55.98498199833557, 62.892650021240115, 53.58306196285412, 59.5158800133504, 49.57076703431085, 58.71001398190856, 49.00339001324028, 56.21727800462395, 46.973933989647776, 52.71237000124529, 62.488631054293364, 52.74298903532326, 57.43543297285214, 47.57936799433082, 53.040196013171226, 43.567831977270544, 48.28946205088869, 52.86791699472815, 44.22142496332526, 49.02574303559959, 51.91937094787136, 43.161141977179796, 47.40441497415304, 53.35492501035333, 43.72547002276406, 47.51918202964589, 53.598837985191494, 43.9657749957405, 49.39996497705579, 56.422891037072986, 46.608456992544234, 51.99546198127791, 41.247525019571185, 52.67488397657871, 62.20456800656393, 52.47471801703796, 58.533337025437504, 48.181620019022375, 54.32395898969844, 63.2755879778415, 53.63363097421825, 59.5016639563255, 49.16145099559799, 55.941211991012096, 46.199126983992755, 52.58647201117128, 57.20719299279153, 47.12279397062957, 52.68999299732968, 61.73008598852903, 52.44813300669193, 57.613431999925524, 47.92906396323815, 52.082473994232714, 43.25083101866767, 47.98372701043263, 52.91550501715392, 43.35341998375952, 47.579874051734805, 52.85279802046716, 43.67253399686888, 48.23614901397377, 53.81828505778685, 43.45400497550145, 47.97840700484812, 53.747832018416375, 44.6335319429636, 49.12528395652771, 56.43083294853568, 47.44711297098547, 51.884601009078324, 42.09226596867666, 47.247303009498864, 53.81918099010363, 44.00008701486513, 47.36093699466437, 53.433406981639564, 43.539446021895856, 46.917962026782334, 53.416473034303635, 44.05032395152375, 48.63218800164759, 56.385739997494966, 46.849049045704305, 52.628943987656385, 42.43847797624767, 46.21359001612291, 52.23178898449987, 42.4278219579719, 45.542264997493476, 51.56700900988653, 57.604899047873914, 48.72675699880347, 55.106560001149774, 45.84495699964464, 52.83931200392544, 58.567505970131606, 49.34695997508243, 55.974007002078, 46.14978900644928, 51.65811098413542, 62.079562980216, 52.85278201336041, 56.44688301254064, 46.99472099309787, 53.30728000262752, 57.921188010368496, 48.762220016215, 56.250382971484214, 46.44809302408248, 51.82889802381396, 42.35046997200698, 48.514747992157936, 56.97437503840774, 47.7772899903357, 55.64959300681949, 45.03870400367305, 50.636388012208045, 58.15748200984672, 48.183387028984725, 53.4118739888072, 44.34636601945385, 47.68808896187693, 54.157121980097145, 45.34503899049014, 52.5703530292958, 57.34786996617913, 48.31838503014296, 56.675655010621995, 46.75687098642811, 52.68414400052279, 42.82798897475004, 45.63801200129092, 52.38425201969221, 41.97044397005811, 46.797501971013844, 53.304744011256844, 44.1338189993985, 48.706767964176834, 55.10052101453766, 52.332211984321475, 52.282331977039576, 54.641022987198085, 45.53549800766632, 49.50702399946749, 51.501162990462035, 45.610854984261096, 49.449393001850694, 55.05890998756513, 45.18852400360629, 50.253748951945454, 56.120402994565666, 45.87155004264787, 51.265304966364056, 57.20823904266581, 47.00442001922056, 51.974712987430394, 42.80145699158311, 44.42925099283457, 52.68884199904278, 42.72938298527151, 46.391978044994175, 52.349414967466146, 42.94186003971845, 46.892773010767996, 53.07126702973619, 43.146025971509516, 47.204701986629516, 52.00056597823277, 43.23813098017126, 48.822822980582714, 52.683836955111474, 43.27569901943207, 48.87857200810686, 53.59763198066503, 44.418703007977456, 47.68032894935459, 52.335679007228464, 42.32890997081995, 52.91080998722464, 63.180928002111614, 53.494919964578, 59.609312971588224, 52.45522496988997, 57.22364998655394, 47.25169396260753, 52.928494988009334, 43.60760102281347, 46.99490696657449, 52.44589998619631, 42.475523019675165, 45.50400498555973, 52.51883500022814, 42.622296954505146, 46.398031001444906, 52.37453797599301, 42.63203497976065, 46.03774001589045, 52.91773995850235, 42.94254595879465, 45.635659946128726, 52.01632500393316, 42.716013034805655, 43.11949299881235, 49.05817599501461, 55.12787599582225, 44.90307200467214, 52.37490602303296, 57.530838006641716, 47.67879098653793, 53.49257303168997, 43.58576197410002, 45.64977594418451, 52.18716600211337, 56.311076041311026, 46.79880401818082, 52.64686496229842, 43.11116301687434, 44.94711197912693, 52.65640397556126, 56.819046032615006, 47.28559899376705, 52.8152710176073, 62.19732097815722, 52.910232974682, 56.11608497565612, 48.078979016281664, 54.194653988815844, 44.43399398587644, 48.4146429807879, 56.677618995308876, 47.136866953223944, 53.572801989503205, 43.021377990953624, 48.06670802645385, 56.627311976626515, 46.77950398763642, 52.48436098918319, 43.58371201669797, 47.55930998362601, 55.16028095735237, 45.34109903033823, 49.681988020893186, 56.04511097772047, 47.09258204093203, 52.49609804013744, 42.325203015934676, 45.93837499851361, 53.871915966738015, 44.311589968856424, 49.18020695913583, 54.19578100554645, 44.40629098098725, 49.19904196867719, 55.1776880165562, 45.24318396579474, 52.66537802526727, 57.22149700159207, 47.53842402715236, 53.66726097417995, 43.919892981648445, 48.777617048472166, 54.706706025172025, 44.89690699847415, 50.14457396464422, 58.148037001956254, 48.416982986964285, 55.98541704239324, 46.05121701024473, 52.97125602373853, 43.29157096799463, 47.8154779993929, 56.211623013950884, 46.237338974606246, 52.39117401652038, 42.681842984165996, 46.8374959891662, 54.45283296285197, 44.71102199750021, 49.341711041051894, 54.4745369697921, 44.67811301583424, 48.992243013344705, 56.66741298045963, 46.90996598219499, 54.33356197318062, 44.403770996723324, 49.1298510460183, 57.52685200423002, 47.70555498544127, 54.811128007713705, 45.41193100158125, 52.21699899993837, 56.80729099549353, 47.99390700645745, 54.46881300304085, 44.679813960101455, 49.286914989352226, 55.04166998434812, 45.215738005936146, 52.476359996944666, 61.64374103536829, 52.441495994571596, 52.176891011185944, 43.10115100815892, 47.95390396611765, 53.74498898163438, 42.24571801023558, 49.70489797415212, 56.363956013228744, 46.61333101103082, 52.529830019921064, 42.64025099109858, 45.90441798791289, 53.07942599756643, 43.224185006693006, 46.23517603613436, 52.46438801987097, 43.33499097265303, 46.09418602194637, 52.39545804215595, 42.6375949755311, 46.4292989927344, 52.16376902535558, 56.35425099171698, 47.79126401990652, 53.04699100088328, 56.47232901537791, 47.35109698958695, 52.46933799935505, 62.577482021879405, 51.70435702893883, 57.64596303924918, 48.25418203836307, 53.5291830310598, 42.92603599606082, 47.593866009265184, 52.97773901838809, 43.74955396633595, 48.56965900398791, 53.13662299886346, 43.491913995239884, 47.725307988002896, 52.9362759552896, 43.8501019962132, 50.365759001579136, 56.92829203326255, 47.10655799135566, 52.64547799015418, 42.9261940298602, 44.72899198299274, 50.3802290186286, 57.647778012324125, 48.65138197783381, 54.5836899545975, 45.193535974249244, 48.33974497159943, 57.45955801103264, 47.6978020160459, 52.695543970912695, 43.04854100337252, 46.43381998175755, 52.80241201398894, 42.90250298799947, 47.26224596379325, 53.65118698682636, 43.90544904163107, 51.87681003008038, 56.444810004904866, 46.45416705170646, 51.688274019397795, 42.78246499598026, 46.66133300634101, 56.1159829958342, 46.19436099892482, 52.319251000881195, 42.41904499940574, 46.6488900128752, 50.97807297715917, 42.66408900730312, 47.13056900072843, 53.782778966706246, 44.31370896054432, 48.306797980330884, 56.49239895865321, 46.70832498231903, 53.03903802996501, 43.19440800463781, 46.321059053298086, 51.717261027079076, 57.84708197461441, 47.26513900095597, 54.16821897961199, 44.387536006979644, 49.15102198719978, 55.7035889942199, 45.91484903357923, 52.39978799363598, 42.54864202812314, 44.89092901349068, 51.62514897529036, 42.551108985207975, 45.67043198039755, 51.508684002328664, 42.523924028500915, 46.533854969311506, 52.703873021528125, 43.10757794883102, 47.19765798654407, 54.054923995863646, 44.93483598344028, 49.6684749959968, 56.46107898792252, 47.14699101168662, 54.20637194765732, 43.43475797213614, 48.54677099501714, 53.21882799034938, 43.769392010290176, 47.597552998922765, 53.50539099890739, 44.37781503656879, 48.373110010288656, 53.705648984760046, 44.11221400368959, 48.377342987805605, 54.791205970104784, 45.848395966459066, 52.857325004879385, 43.154622020665556, 46.96219804463908, 52.579804963897914, 42.78322501340881, 47.192764992360026, 52.61624098056927, 42.78929199790582, 47.284787986427546, 53.47490403801203, 42.875427985563874, 46.89330101246014, 52.29340703226626, 42.380753031466156, 47.2351839998737, 52.42382502183318, 43.198362982366234, 47.21556603908539, 53.26448701089248, 43.56124298647046, 46.76172899780795, 51.400961994659156, 42.5305999815464, 45.923216035589576, 52.353537001181394, 42.37514903070405, 46.46204796154052, 52.845091035123914, 42.90673101786524, 45.4945900128223, 52.41212801774964, 58.397773012984544, 48.957256018184125, 54.840028984472156, 45.378571026958525, 52.405316033400595, 42.58950398070738, 45.493300014641136, 50.514945993199944, 41.1354840034619, 44.145512976683676, 49.57128502428532, 57.278938009403646, 46.094955992884934, 51.58485297579318, 42.45282802730799, 46.96187499212101, 52.18279198743403, 42.573979997541755, 47.30383103014901, 52.81860800459981, 42.97225101618096, 47.291929950006306, 54.21525699784979, 43.63098699832335, 49.11466798512265, 57.16565699549392, 47.4172790418379, 52.89413098944351, 42.96444699866697, 47.26452601607889, 56.09109398210421, 46.1774249561131, 53.456040972378105, 43.53686299873516, 44.38354098238051, 51.52899300446734, 57.749287982005626, 46.383840031921864, 54.12207200424746, 44.11175602581352, 48.87337499530986, 55.85499701555818, 46.036494022700936, 52.306202007457614, 42.7789959940128, 47.04087303252891, 53.38884796947241, 44.12610997678712, 47.743223956786096, 54.65335998451337, 44.628404022660106, 48.67749201366678, 55.92056200839579, 47.2411600057967, 52.606721001211554, 42.433467984665185, 47.21076402347535, 54.34533196967095, 44.18900900054723, 48.9945329609327, 57.547471951693296, 47.86235501524061, 54.747701971791685, 43.80008002044633, 49.62642601458356, 58.82209003902972, 49.648569023702294, 56.678275985177606, 46.26715602353215, 53.833644022233784, 44.07716600690037, 49.07593398820609, 56.0930929495953, 46.1087939911522, 52.26847401354462, 56.10776599496603, 47.13436798192561, 55.655370000749826, 46.3471130351536, 53.503512986935675, 44.057766965124756, 48.59318595845252, 57.059673010371625, 47.19914402812719, 56.50850897654891, 46.82805301854387, 54.38257899368182, 44.433912029489875, 48.40825201245025, 55.85223302477971, 46.68069601757452, 53.199552989099175, 44.659175036940724, 47.49596200417727, 55.28436996974051, 45.35905900411308, 53.28415596159175, 57.643248001113534, 47.208660980686545, 55.124795995652676, 45.757172047160566, 51.39843397773802, 42.31300996616483, 45.71686597773805, 52.47708299430087, 42.66128002200276, 46.61443695658818, 52.71766899386421, 42.58990997914225, 47.46829898795113, 53.606006025802344, 44.25422300118953, 49.06333895632997, 55.53969496395439, 45.574424031656235, 51.67297803563997, 42.7723930333741, 44.960332044865936, 50.141782965511084, 55.374135030433536, 46.14444397157058, 51.68913403758779, 43.1809849687852, 47.118449001573026, 53.268907009623945, 43.76557801151648, 47.16707702027634, 52.279750001616776, 43.170624994672835, 47.02088498743251, 53.11492003966123, 62.37194803543389, 51.928719971328974, 57.818740024231374, 47.91118297725916, 53.464393015019596, 43.8545539509505, 46.79970699362457, 52.93293599970639, 43.19404100533575, 46.955491008702666, 51.64084496209398, 60.76741102151573, 51.03379499632865, 57.64687299961224, 47.77135397307575, 53.21586097124964, 43.23036503046751, 46.28451599273831, 52.62605397729203, 42.292160040233284, 45.86211603600532, 51.80351104354486, 42.483686993364245, 45.88201601291075, 51.869768009055406, 42.9914589622058, 46.06732400134206, 50.61542900511995, 42.64613601844758, 45.91028799768537, 52.02098796144128, 42.66811703564599, 45.63948599388823, 52.49911599094048, 42.61010797927156, 45.024419960100204, 50.27054401580244, 55.82191701978445, 46.99596099089831, 52.03205603174865, 42.844494979362935, 45.12060194974765, 52.4700140231289, 42.62023197952658, 45.12067302130163, 51.987309008836746, 58.77197696827352, 49.00984599953517, 56.62531696725637, 45.889845001511276, 52.98511200817302, 42.800360010005534, 47.686819976661354, 54.44642098154873, 44.06831203959882, 49.099138006567955, 54.727584996726364, 45.12441600672901, 52.42781498236582, 58.098274981603026, 48.443039995618165, 55.21144298836589, 44.396283046808094, 52.25928401341662, 57.55530402529985, 48.262458003591746, 54.60739502450451, 44.59578695241362, 48.4555930015631, 56.07026600046083, 46.87664599623531, 52.45367897441611, 42.553342995233834, 46.334148035384715, 52.13044595438987, 42.9073820123449, 47.62578697409481, 55.64690299797803, 44.62540696840733, 52.442395011894405, 57.352670992258936, 47.68246097955853, 53.24239103356376, 44.0626289928332, 49.280075007118285, 54.23729697940871, 45.12776399496943, 49.05017599230632, 56.663530005607754, 46.91570298746228, 52.779032033868134, 42.998362972866744, 47.22649202449247, 54.9517449690029, 44.5118680363521, 52.40756704006344, 56.55694397864863, 47.371276014018804, 54.34672097908333, 44.65375101426616, 48.821820004377514, 55.84522697608918, 45.960395014844835, 51.24739900929853, 57.52649100031704, 47.71607898874208, 53.80512500414625, 44.61519100004807, 50.68239400861785, 56.210296985227615, 46.58139497041702, 52.874447021167725, 42.84454201115295, 46.727441949769855, 52.63962101889774, 43.08679100358859, 48.78196498611942, 55.35082204733044, 46.13002797123045, 52.22385301021859, 57.60438699508086, 47.698677983134985, 53.00475098192692, 44.2318829591386, 49.04746502870694, 53.31022199243307, 43.80945098819211, 48.91487100394443, 53.04383800830692, 43.866644031368196, 47.76190099073574, 52.473818010184914, 43.295442999806255, 47.34843800542876, 52.55697900429368, 42.74578596232459, 49.04454597271979, 53.49211301654577, 44.78097194805741, 49.242014007177204, 54.69118698965758, 45.61539797578007, 52.32964496826753, 57.05954000586644, 47.164275019895285, 52.55183100234717, 42.88009298034012, 47.21723799593747, 53.198861016426235, 43.50251698633656, 47.411992971319705, 51.867964037228376, 42.00157802551985, 47.213312005624175, 53.233726997859776, 43.214857985731214, 47.37468098755926, 52.54596198210493, 43.177289015147835, 47.24118299782276, 52.56909300806001, 42.77400398859754, 47.024441009853035, 53.23109496384859, 43.693040031939745, 47.15456202393398, 52.96073399949819, 43.24104799889028, 45.76127097243443, 53.0998469912447, 43.24323101900518, 46.91474500577897, 52.27665702113882, 42.743890022393316, 46.86155600938946, 51.945446990430355, 42.814382002688944, 47.535244026221335, 53.04211500333622, 43.358791968785226, 47.941701021045446, 54.92413102183491, 45.247275033034384, 52.15753195807338, 56.58919096458703, 45.57287797797471, 52.793767012190074, 42.282590991817415, 46.90406797453761, 54.34585199691355, 44.41863700048998, 49.8390169814229, 60.76179299270734, 52.62239504372701, 59.187020000535995, 50.040159025229514, 56.736471015028656, 63.668430026154965, 53.482596995308995, 62.38929199753329, 51.729788014199585, 58.009742002468556, 47.542682965286076, 54.991670011077076, 45.14371801633388, 52.668431017082185, 42.9686950519681, 43.279209989123046, 49.63211598806083, 52.09036997985095, 44.82128599192947, 49.164949043188244, 56.615289009641856, 46.58381000626832, 52.29273403529078, 42.71440498996526, 45.05357699235901, 52.29182698531076, 56.379897985607386, 48.16504701739177, 54.63620997034013, 44.54860900295898, 48.76550001790747, 39.06005498720333, 44.991770992055535, 52.39690002053976, 42.408092005643994, 44.94174203136936, 51.56613403232768, 42.51430300064385, 43.2459200383164, 48.718237958382815, 52.67554504098371, 43.24636101955548, 46.721514023374766, 53.02074801875278, 44.0916339866817, 48.74531098175794, 56.30203697364777, 46.380928019061685, 52.32297000475228, 41.67659400263801, 46.14492895780131, 52.734842989593744, 42.92145697399974, 46.32538201985881, 52.598572976421565, 42.801506991963834, 46.80430598091334, 54.34124602470547, 43.24125801213086, 48.548606981057674, 54.665503033902496, 45.53234501508996, 52.49390401877463, 42.54766902886331, 44.370171963237226, 52.238935022614896, 42.2570810187608, 43.2716510258615, 47.57985600735992, 53.88752301223576, 44.25282997544855, 48.78399602603167, 55.26187899522483, 44.312355981674045, 52.44087299797684, 42.47572994790971, 45.1528379926458, 52.33835196122527, 42.49299404909834, 45.48862297087908, 52.88348800968379, 42.446210980415344, 46.64561996469274, 52.938968990929425, 43.248527974355966, 47.22346999915317, 53.312441043090075, 43.62378403311595, 47.928387008141726, 54.423195018898696, 43.77562599256635, 48.06350701255724, 53.3093570265919, 44.13880896754563, 49.75869000190869, 55.65663700690493, 45.82294699503109, 52.060677960980684, 42.360874998848885, 46.437370008789, 51.53657600749284, 42.189198022242635, 46.176219009794295, 51.49122601142153, 42.82280901679769, 46.28202703315765, 52.33772599603981, 42.3202840029262, 45.32852198462933, 51.08871002448723, 42.482424003537744, 42.92009002529085, 48.17649401957169, 52.779764984734356, 43.699366971850395, 48.0467050219886, 52.54312901524827, 60.042052005883306, 50.13977299677208, 55.741766991559416, 45.97881104564294, 52.194088988471776, 41.82561603374779, 44.864557043183595, 50.91567902127281, 42.24390600575134, 45.00132397515699, 51.99841700959951, 42.094318952877074, 45.646447979379445, 52.019077993463725, 42.32311301166192, 45.853716030251235, 52.4212809978053, 42.51106298761442, 45.68562301574275, 51.757067965809256, 42.34574898146093, 44.56876200856641, 48.615872976370156, 52.74408601690084, 62.475017039105296, 70.45939902309328, 62.10181099595502, 53.113922011107206, 56.26962200039998, 63.68231697706506, 53.71839401777834, 58.80221200641245, 49.00737601565197, 55.73724501300603, 45.935930975247175, 49.077241972554475, 56.51697498979047, 47.31964005623013, 52.368317963555455, 41.950806975364685, 46.239199000410736, 52.52146703423932, 41.81035602232441, 45.69753899704665, 52.340857044328004, 42.49932599486783, 45.420780952554196, 52.33587202383205, 42.31398901902139, 45.36507203010842, 48.861071991268545, 39.56554603064433, 43.903914047405124, 49.36568101402372, 55.359609017614275, 45.344844984356314, 49.58934703608975, 40.28165194904432, 43.45569701399654, 49.175330030266196, 55.188445025123656, 46.482369012665, 52.49684303998947, 57.71752499276772, 48.4027789789252, 53.248846961651, 59.007273986935616, 49.84820896061137, 54.41503401380032, 44.02084700996056, 48.97492699092254, 54.81929401867092, 45.618203992489725, 50.30614498537034, 56.4377800328657, 47.43579699425027, 53.21877798996866, 44.76587497629225, 50.05954799707979, 55.98608998116106, 46.244680997915566, 53.59818396391347, 62.809914990793914, 52.635714993812144, 58.97587304934859, 49.29566098144278, 54.32565597584471, 44.24550797557458, 49.52924099052325, 54.30149903986603, 44.90385000826791, 50.42271100683138, 56.05775600997731, 46.21637595118955, 52.37148003652692, 56.90067895920947, 46.63837299449369, 49.539777042809874, 57.04958300339058, 47.20497695961967, 53.01796202547848, 43.16649597603828, 46.45692399935797, 53.98148304084316, 44.08210696419701, 47.488854033872485, 53.94565802998841, 43.59930503414944, 47.0820150221698, 53.98765200516209, 44.15946500375867, 49.36584999086335, 54.267192957922816, 44.584852003026754, 48.33013197639957, 54.32649696012959, 44.54987298231572, 49.682009033858776, 55.69631600519642, 45.930081978440285, 51.96560698095709, 42.5981690059416, 46.18019802728668, 52.47496999800205, 42.738113028462976, 46.526541002094746, 52.442778018303216, 58.00147802801803, 50.12549803359434, 53.46017802366987, 43.63872401881963, 48.03803999675438, 52.25669400533661, 42.98914800165221, 47.399075992871076, 54.16216095909476, 44.34410796966404, 48.98996598785743, 57.38729302538559, 47.63669898966327, 53.035219956655055, 43.04386401781812, 47.08265303634107, 51.52374098543078, 42.57132497150451, 46.67800001334399, 52.879105031024665, 42.52104100305587, 46.580394031479955, 52.58366197813302, 42.619272018782794, 44.8162829852663, 50.79893599031493, 57.306900969706476, 47.48947999905795, 52.158289996441454, 42.56843600887805, 45.70786497788504, 52.41804197430611, 42.593150050379336, 46.362480032257736, 51.382953010033816, 42.23049501888454, 46.04466701857746, 52.13440296938643, 42.1682620071806, 45.57924496475607, 51.68814095668495, 42.32411296106875, 45.6707279663533, 52.2768379887566, 42.300550965592265, 45.14134599594399, 52.413308003451675, 42.610955017153174, 44.03622401878238, 49.075611983425915, 56.794465985149145, 46.53266497189179, 51.42870597774163, 42.45092102792114, 46.008003992028534, 51.03398801293224, 58.33505996270105, 48.64926100708544, 52.64037003507838, 43.26123802457005, 46.266763005405664, 53.309253009501845, 43.72887301724404, 48.028221004642546, 53.546506038401276, 43.723752023652196, 49.70618797233328, 56.34205398382619, 46.53047799365595, 52.11357999360189, 43.32842800067738, 46.70875205192715, 52.62898199725896, 42.790847015567124, 45.5847880220972, 52.47060599504039, 56.62002501776442, 47.4361430387944, 53.9248589775525, 44.40171702299267, 48.352740006521344, 57.23028298234567, 47.34477901365608, 53.823510999791324, 43.946678983047605, 47.43311298079789, 53.34902001777664, 44.82034099055454, 49.671108019538224, 56.8795150029473, 46.99890699703246, 54.13770896848291, 45.17641704296693, 48.43724297825247, 56.8533840123564, 47.03993705334142, 52.4923000484705, 42.09370800526813, 46.70957999769598, 52.450191986281425, 43.70076098712161, 47.99026303226128, 55.27923000045121, 45.49004201544449, 50.02533900551498, 56.11699598375708, 47.106718993745744, 53.41478402260691, 43.60628401627764, 48.18420100491494, 55.52280502161011, 46.39705101726577, 52.2227410110645, 42.4096190254204, 46.60658701322973, 52.775891963392496, 43.04095800034702, 46.809474006295204, 53.9014259702526, 44.33729499578476, 50.0265330192633, 56.60942802205682, 46.71063896967098, 53.743685013614595, 43.901675962843, 48.19678299827501, 55.88220799108967, 46.17612098809332, 52.66092100646347, 42.33043297426775, 45.20059801870957, 52.19892895547673, 42.66814701259136, 46.41401598928496, 52.01166699407622, 44.060683983843774, 47.000133024994284, 52.780222962610424, 43.29934099223465, 45.39909400045872, 53.056049975566566, 43.92212600214407, 48.87819499708712, 53.2296160236001, 43.17072301637381, 48.52859099628404, 53.99022396886721, 44.21559703769162, 48.18288004025817, 53.76643198542297, 44.68083300162107, 51.74966901540756, 56.61503301234916, 46.98179999832064, 55.28247001348063, 45.40475702378899, 52.96270898543298, 53.710760024841875, 44.734555995091796, 49.524777045007795, 54.98633801471442, 44.79527805233374, 51.76740902243182, 57.03443998936564, 47.234120953362435, 54.19803800759837, 44.55998196499422, 49.145297962240875, 54.107024043332785, 44.918967003468424, 48.99997700704262, 55.27251900639385, 43.822836014442146, 52.27247398579493, 42.40501200547442, 45.49185204086825, 52.851043990813196, 42.933032964356244, 44.20088202459738, 48.16170100821182, 53.933083021547645, 44.16905203834176, 48.53555402951315, 54.516601958312094, 44.63992896489799, 48.72486100066453, 56.05593300424516, 46.318162989337, 52.071411977522075, 42.18332300661132, 45.55922403233126, 51.01545201614499, 58.43986303079873, 49.24926802050322, 54.005350975785404, 44.08878198591992, 48.78043697681278, 54.4006850104779, 44.49758102418855, 49.43103302503005, 54.29847602499649, 44.5964329992421, 51.5850959927775, 55.788061989005655, 45.94349500257522, 53.62911301199347, 56.57908698776737, 46.82009998941794, 52.180183003656566, 42.47402003966272, 44.78738101897761, 51.61994299851358, 41.69979802099988, 44.87030697055161, 50.21030403440818, 56.70095497043803, 46.789246960543096, 52.895455970428884, 42.90082002989948, 44.639684027060866, 48.73655299888924, 56.11949000740424, 46.76681698765606, 51.50557402521372, 42.41263901349157, 44.21559302136302, 47.916984010953456, 50.581321003846824, 42.728856031317264, 47.00260696699843, 52.95132799074054, 42.4603009596467, 46.27573996549472, 52.272032015025616, 42.392629955429584, 45.00639199977741, 52.06962797092274, 42.1930740121752, 43.48290798952803, 49.09329896327108, 55.90223299805075, 46.14168300759047, 50.25077803293243, 40.62146000796929, 43.04092098027468, 45.16738199163228, 54.04596001608297, 43.915096030104905, 49.42645295523107, 56.556515977717936, 46.61836696323007, 52.52224096329883, 42.85792098380625, 47.12503700284287, 54.45832299301401, 44.12234597839415, 49.53958099940792, 56.481795967556536, 46.68342799413949, 53.93565498525277, 44.0367300179787, 46.61250300705433, 52.52209003083408, 42.688092042226344, 45.317062991671264, 51.932276983279735, 42.77422197628766, 46.950425021350384, 53.32916998304427, 43.78812602953985, 47.47730598319322, 54.16053900262341, 44.41154602682218, 48.19877998670563, 55.19060796359554, 45.580014993902296, 49.48122502537444, 55.639492988120764, 46.67846002848819, 53.19350096397102, 43.45693998038769, 46.234602050390095, 52.677929983474314, 42.638135026209056, 45.19448400242254, 52.50581604195759, 42.69090102752671, 45.49181601032615, 51.92286102101207, 43.56063000159338, 46.56141699524596, 52.72066697943956, 43.002827966120094, 46.8072280054912, 52.75341996457428, 42.952353018336, 44.85658201156184, 50.026069045998156, 56.85349297709763, 46.893931983504444, 55.691205023322254, 46.24474002048373, 51.305561035405844, 42.596727958880365, 46.126394998282194, 53.22866200003773, 43.262396997306496, 47.60777699993923, 55.86710898205638, 45.97765998914838, 51.85096198692918, 42.66069398727268, 45.86570302490145, 52.39979602629319, 42.33756597386673, 45.37312802858651, 52.268858009483665, 42.655967990867794, 45.49259098712355, 52.386442956048995, 56.03364302078262, 46.135124983265996, 50.86948600364849, 60.011197987478226, 50.41041801450774, 54.8619200126268, 44.831678038463, 50.62398599693552, 56.67662597261369, 46.39959702035412, 53.674584021791816, 43.913763016462326, 45.70502298884094, 52.264500001911074, 43.30059501808137, 47.03323298599571, 52.68122802954167, 42.667234025429934, 47.29480901733041, 52.388174983207136, 42.84622997511178, 47.17031097970903, 50.558459013700485, 42.58489503990859, 46.86940595274791, 51.383911981247365, 42.55861300043762, 47.23644396290183, 52.967889001592994, 42.9775639786385, 47.95299400575459, 58.99182701250538, 49.32779399678111, 54.30784996133298, 43.915638991165906, 52.55524400854483, 48.27321198536083, 58.62543999683112, 52.77750897221267, 61.49420398287475, 52.46069299755618, 58.715457969810814, 49.58852502750233, 55.54269801359624, 45.97042698878795, 52.76293499628082, 42.83985897200182, 46.115435019601136, 52.84626595675945, 42.96710202470422, 46.04052199283615, 52.78707901015878, 42.8430309984833, 46.75033700186759, 53.048410976771265, 44.40844798227772, 50.166522967629135, 55.70777301909402, 46.71136196702719, 52.681695960927755, 43.065692007075995, 44.799244962632656, 52.5694009847939, 58.5390769992955, 48.567209974862635, 52.52893303986639, 43.09430002467707, 48.41042298357934, 54.742335982155055, 44.898442982230335, 49.918197037186474, 57.41496797418222, 47.933014982845634, 53.02924202987924, 44.126375985797495, 48.58760099159554, 56.1904109781608, 46.3636209606193, 51.33053701138124, 42.18430502805859, 46.31051199976355, 52.312766027171165, 42.47374401893467, 45.795570011250675, 50.6307749892585, 42.707922984845936, 45.07532197749242, 50.36224698415026, 58.367166959214956, 47.81021300004795, 56.68820004211739, 46.75311199389398, 51.77440302213654, 42.57043299730867, 45.62853300012648, 52.367322030477226, 58.742071967571974, 49.42743299761787, 53.699826006777585, 44.85949804075062, 48.63940901122987, 54.1077220113948, 44.46806799387559, 49.37139298999682, 55.4673449951224, 45.62197002815083, 49.86466799164191, 57.61306901695207, 47.766358009539545, 54.11141301738098, 44.46254501817748, 48.740687023382634, 56.27048300812021, 46.37871799059212, 52.78922204161063, 43.024084996432066, 46.78279400104657, 52.326432953123, 41.64387797936797, 47.08053998183459, 52.295703964773566, 42.786876030731946, 46.676263969857246, 52.744855056516826, 43.12121600378305, 47.69920400576666, 55.34203496063128, 45.47764197923243, 49.601417966187, 56.46512197563425, 46.68416199274361, 53.175501991063356, 43.72914903797209, 47.69880301319063, 53.9501229650341, 44.1115060239099, 47.817900020163506, 52.968965959735215, 42.64115000842139, 47.73482901509851, 54.553456022404134, 44.85983500489965, 49.43749797530472, 56.038597016595304, 46.18304001633078, 54.03501295950264, 44.30711199529469, 48.4044459881261, 53.990119020454586, 43.75098698073998, 48.85370604461059, 54.195388045627624, 44.39092200482264, 48.56289702001959, 54.697898973245174, 45.17768102232367, 52.38410900346935, 55.230188998393714, 45.5330690019764, 48.93069399986416, 54.99617598252371, 46.09913000604138, 53.29026095569134, 43.50033600348979, 45.47775100218132, 52.52369504887611, 42.707200977019966, 44.35607703635469, 49.04846899444237, 53.68474300485104, 44.6941260015592, 50.61922699678689, 54.823181009851396, 45.33963795984164, 52.68402799265459, 57.58099997183308, 47.104981960728765, 53.75280597945675, 43.397331959567964, 47.280828992370516, 51.975819980725646, 42.87875699810684, 45.722631039097905, 52.60765599086881, 43.04629797115922, 46.75707302521914, 52.63524403562769, 42.812585015781224, 46.778880001511425, 52.637866989243776, 42.83312801271677, 44.728389009833336, 48.260774987284094, 56.563777034170926, 46.793218003585935, 51.938120974227786, 42.11112397024408, 45.81159696681425, 53.44315699767321, 43.516019999515265, 47.2201029770076</t>
         </is>
       </c>
     </row>
